--- a/Parqueaderosv3/datos_salida/analisis_estacionamiento/irt.xlsx
+++ b/Parqueaderosv3/datos_salida/analisis_estacionamiento/irt.xlsx
@@ -750,7 +750,7 @@
         <v>0.077</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.333</v>
+        <v>1.267</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>1.1</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>1.571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.429</v>
+        <v>2.286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.429</v>
+        <v>0.286</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -1575,7 +1575,7 @@
         <v>0.625</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>1.75</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.375</v>
+        <v>2.125</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>2.9</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1690,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.833</v>
+        <v>0.667</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>1.167</v>
@@ -1699,7 +1699,7 @@
         <v>1.333</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.143</v>
+        <v>3</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>2.429</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>2.5</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>4.286</v>
+        <v>4.143</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>2.571</v>
@@ -2133,7 +2133,7 @@
         <v>2.429</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>5</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>8.4</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>0.5</v>
@@ -2474,7 +2474,7 @@
         <v>0.625</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>3.857</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.143</v>
+        <v>4</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>3.6</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>7</v>
+        <v>6.857</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>3.857</v>
@@ -2784,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
@@ -3414,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.233000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>7.5</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.133</v>
+        <v>0.633</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0.467</v>
@@ -3677,7 +3677,7 @@
         <v>1.933</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.867</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="26">
@@ -3786,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.5</v>
+        <v>2.417</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>0.5</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.467</v>
+        <v>0.4</v>
       </c>
       <c r="I30" s="5" t="n">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>3.75</v>
+        <v>3.667</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>0</v>
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32">
@@ -3879,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>2.077</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>0.533</v>
+        <v>0.3</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>0.333</v>
@@ -4065,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>5.917</v>
+        <v>5.833</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>0</v>
@@ -4142,7 +4142,7 @@
         <v>2.9</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.6</v>
+        <v>0.533</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>0.467</v>
@@ -4344,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>5.667</v>
+        <v>5.333</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>0.6</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>1.9</v>
@@ -4995,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>9.273</v>
+        <v>9.182</v>
       </c>
       <c r="E68" s="5" t="n">
         <v>0</v>
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="G68" s="5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H68" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="H68" s="5" t="n">
-        <v>1.1</v>
-      </c>
       <c r="I68" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69">
@@ -5026,7 +5026,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E69" s="5" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="5" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>0.7</v>
@@ -5150,7 +5150,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>3.562</v>
+        <v>3.5</v>
       </c>
       <c r="E73" s="5" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="5" t="n">
-        <v>1.533</v>
+        <v>0.767</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>0.667</v>
@@ -5212,7 +5212,7 @@
         <v>15</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>1.538</v>
+        <v>1.077</v>
       </c>
       <c r="E75" s="5" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" s="5" t="n">
         <v>0.667</v>
       </c>
       <c r="I75" s="5" t="n">
-        <v>1.733</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="76">
@@ -5320,7 +5320,7 @@
         <v>0.267</v>
       </c>
       <c r="I78" s="5" t="n">
-        <v>1.133</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="79">
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>3.25</v>
+        <v>3.125</v>
       </c>
       <c r="E79" s="5" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>4.083</v>
+        <v>4</v>
       </c>
       <c r="E81" s="5" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="5" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>0.636</v>
+        <v>0.545</v>
       </c>
       <c r="E86" s="5" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="n">
-        <v>2.6</v>
+        <v>1.35</v>
       </c>
       <c r="H86" s="5" t="n">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H91" s="5" t="n">
         <v>0.1</v>
@@ -5739,7 +5739,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>1.417</v>
+        <v>1.333</v>
       </c>
       <c r="E92" s="5" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="5" t="n">
-        <v>2.133</v>
+        <v>1.067</v>
       </c>
       <c r="H92" s="5" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2</v>
+        <v>1.933</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.667</v>
+        <v>0.367</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
@@ -6719,7 +6719,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>1.857</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>0</v>
@@ -7587,7 +7587,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="E58" s="5" t="n">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>2.231</v>
+        <v>2.154</v>
       </c>
       <c r="E59" s="5" t="n">
         <v>0</v>
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>0.733</v>
+        <v>0.4</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>2.5</v>
+        <v>2.333</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.667</v>
+        <v>2.333</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1.111</v>
@@ -8545,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>16</v>
@@ -8917,7 +8917,7 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0.909</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.182</v>
@@ -8951,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>8</v>
+        <v>7.857</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>5</v>
@@ -9041,7 +9041,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>1.167</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1</v>
+        <v>0.833</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>0.2</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I31" s="5" t="n">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0.125</v>
@@ -9475,7 +9475,7 @@
         <v>0.5</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0.8</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>0</v>
@@ -9838,19 +9838,19 @@
         <v>10</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>0.8</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I48" s="5" t="n">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>0.875</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>0</v>
@@ -10219,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>0</v>
@@ -10368,7 +10368,7 @@
         <v>6.286</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>3.286</v>
+        <v>3.143</v>
       </c>
       <c r="F65" s="5" t="n">
         <v>0.429</v>
@@ -10377,7 +10377,7 @@
         <v>0.8</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I65" s="5" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="E67" s="5" t="n">
         <v>4.375</v>
@@ -10436,7 +10436,7 @@
         <v>1.75</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>4.25</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>3.5</v>
+        <v>3.375</v>
       </c>
       <c r="F72" s="5" t="n">
         <v>0.75</v>
@@ -10594,7 +10594,7 @@
         <v>1.6</v>
       </c>
       <c r="H72" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I72" s="5" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0.143</v>
       </c>
       <c r="G77" s="5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H77" s="5" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         <v>10</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="E78" s="5" t="n">
         <v>1</v>
@@ -10777,7 +10777,7 @@
         <v>0.25</v>
       </c>
       <c r="G78" s="5" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="E93" s="5" t="n">
         <v>0.4</v>
@@ -11242,7 +11242,7 @@
         <v>0.2</v>
       </c>
       <c r="G93" s="5" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H93" s="5" t="n">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="E94" s="5" t="n">
         <v>0.111</v>
@@ -11273,7 +11273,7 @@
         <v>0.056</v>
       </c>
       <c r="G94" s="5" t="n">
-        <v>1.25</v>
+        <v>0.65</v>
       </c>
       <c r="H94" s="5" t="n">
         <v>0</v>
@@ -11419,7 +11419,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="5" t="n">
-        <v>5</v>
+        <v>4.833</v>
       </c>
       <c r="E99" s="5" t="n">
         <v>0.667</v>
@@ -11428,7 +11428,7 @@
         <v>0.167</v>
       </c>
       <c r="G99" s="5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H99" s="5" t="n">
         <v>0</v>
